--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Muc2-Agr2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Muc2-Agr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,13 +88,13 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Muc2</t>
   </si>
   <si>
     <t>Agr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,185 +525,619 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.909060235777073</v>
+        <v>0.2100523333333333</v>
       </c>
       <c r="H2">
-        <v>0.909060235777073</v>
+        <v>0.630157</v>
       </c>
       <c r="I2">
-        <v>0.5156489333128855</v>
+        <v>0.06013484981723082</v>
       </c>
       <c r="J2">
-        <v>0.5156489333128855</v>
+        <v>0.06013484981723084</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.08945410921406</v>
+        <v>3.192597333333334</v>
       </c>
       <c r="N2">
-        <v>3.08945410921406</v>
+        <v>9.577792000000001</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9379250156830187</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9379250156830188</v>
       </c>
       <c r="Q2">
-        <v>2.80849988094458</v>
+        <v>0.6706125192604444</v>
       </c>
       <c r="R2">
-        <v>2.80849988094458</v>
+        <v>6.035512673344</v>
       </c>
       <c r="S2">
-        <v>0.5156489333128855</v>
+        <v>0.05640197995792219</v>
       </c>
       <c r="T2">
-        <v>0.5156489333128855</v>
+        <v>0.05640197995792221</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.586139489820211</v>
+        <v>0.2100523333333333</v>
       </c>
       <c r="H3">
-        <v>0.586139489820211</v>
+        <v>0.630157</v>
       </c>
       <c r="I3">
-        <v>0.3324776409783136</v>
+        <v>0.06013484981723082</v>
       </c>
       <c r="J3">
-        <v>0.3324776409783136</v>
+        <v>0.06013484981723084</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>3.08945410921406</v>
+        <v>0.2112966666666667</v>
       </c>
       <c r="N3">
-        <v>3.08945410921406</v>
+        <v>0.63389</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.06207498431698127</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.06207498431698127</v>
       </c>
       <c r="Q3">
-        <v>1.810851055397684</v>
+        <v>0.04438335785888888</v>
       </c>
       <c r="R3">
-        <v>1.810851055397684</v>
+        <v>0.39945022073</v>
       </c>
       <c r="S3">
-        <v>0.3324776409783136</v>
+        <v>0.003732869859308627</v>
       </c>
       <c r="T3">
-        <v>0.3324776409783136</v>
+        <v>0.003732869859308628</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.9261879999999999</v>
+      </c>
+      <c r="H4">
+        <v>2.778564</v>
+      </c>
+      <c r="I4">
+        <v>0.2651538090468949</v>
+      </c>
+      <c r="J4">
+        <v>0.265153809046895</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>3.192597333333334</v>
+      </c>
+      <c r="N4">
+        <v>9.577792000000001</v>
+      </c>
+      <c r="O4">
+        <v>0.9379250156830187</v>
+      </c>
+      <c r="P4">
+        <v>0.9379250156830188</v>
+      </c>
+      <c r="Q4">
+        <v>2.956945338965333</v>
+      </c>
+      <c r="R4">
+        <v>26.612508050688</v>
+      </c>
+      <c r="S4">
+        <v>0.248694390508721</v>
+      </c>
+      <c r="T4">
+        <v>0.2486943905087211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.9261879999999999</v>
+      </c>
+      <c r="H5">
+        <v>2.778564</v>
+      </c>
+      <c r="I5">
+        <v>0.2651538090468949</v>
+      </c>
+      <c r="J5">
+        <v>0.265153809046895</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.2112966666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.63389</v>
+      </c>
+      <c r="O5">
+        <v>0.06207498431698127</v>
+      </c>
+      <c r="P5">
+        <v>0.06207498431698127</v>
+      </c>
+      <c r="Q5">
+        <v>0.1957004371066667</v>
+      </c>
+      <c r="R5">
+        <v>1.76130393396</v>
+      </c>
+      <c r="S5">
+        <v>0.01645941853817385</v>
+      </c>
+      <c r="T5">
+        <v>0.01645941853817385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.726001666666667</v>
+      </c>
+      <c r="H6">
+        <v>5.178005</v>
+      </c>
+      <c r="I6">
+        <v>0.4941285315054348</v>
+      </c>
+      <c r="J6">
+        <v>0.494128531505435</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>3.192597333333334</v>
+      </c>
+      <c r="N6">
+        <v>9.577792000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.9379250156830187</v>
+      </c>
+      <c r="P6">
+        <v>0.9379250156830188</v>
+      </c>
+      <c r="Q6">
+        <v>5.51042831832889</v>
+      </c>
+      <c r="R6">
+        <v>49.59385486496</v>
+      </c>
+      <c r="S6">
+        <v>0.463455510661662</v>
+      </c>
+      <c r="T6">
+        <v>0.4634555106616621</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.726001666666667</v>
+      </c>
+      <c r="H7">
+        <v>5.178005</v>
+      </c>
+      <c r="I7">
+        <v>0.4941285315054348</v>
+      </c>
+      <c r="J7">
+        <v>0.494128531505435</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.2112966666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.63389</v>
+      </c>
+      <c r="O7">
+        <v>0.06207498431698127</v>
+      </c>
+      <c r="P7">
+        <v>0.06207498431698127</v>
+      </c>
+      <c r="Q7">
+        <v>0.3646983988277778</v>
+      </c>
+      <c r="R7">
+        <v>3.28228558945</v>
+      </c>
+      <c r="S7">
+        <v>0.03067302084377286</v>
+      </c>
+      <c r="T7">
+        <v>0.03067302084377286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.286842</v>
+      </c>
+      <c r="H8">
+        <v>0.8605259999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.0821185859616292</v>
+      </c>
+      <c r="J8">
+        <v>0.08211858596162921</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3.192597333333334</v>
+      </c>
+      <c r="N8">
+        <v>9.577792000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.9379250156830187</v>
+      </c>
+      <c r="P8">
+        <v>0.9379250156830188</v>
+      </c>
+      <c r="Q8">
+        <v>0.915771004288</v>
+      </c>
+      <c r="R8">
+        <v>8.241939038591999</v>
+      </c>
+      <c r="S8">
+        <v>0.07702107602592838</v>
+      </c>
+      <c r="T8">
+        <v>0.07702107602592841</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.286842</v>
+      </c>
+      <c r="H9">
+        <v>0.8605259999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.0821185859616292</v>
+      </c>
+      <c r="J9">
+        <v>0.08211858596162921</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.2112966666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.63389</v>
+      </c>
+      <c r="O9">
+        <v>0.06207498431698127</v>
+      </c>
+      <c r="P9">
+        <v>0.06207498431698127</v>
+      </c>
+      <c r="Q9">
+        <v>0.06060875846</v>
+      </c>
+      <c r="R9">
+        <v>0.5454788261399999</v>
+      </c>
+      <c r="S9">
+        <v>0.005097509935700811</v>
+      </c>
+      <c r="T9">
+        <v>0.005097509935700812</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.267744357185242</v>
-      </c>
-      <c r="H4">
-        <v>0.267744357185242</v>
-      </c>
-      <c r="I4">
-        <v>0.1518734257088008</v>
-      </c>
-      <c r="J4">
-        <v>0.1518734257088008</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>3.08945410921406</v>
-      </c>
-      <c r="N4">
-        <v>3.08945410921406</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0.8271839045248228</v>
-      </c>
-      <c r="R4">
-        <v>0.8271839045248228</v>
-      </c>
-      <c r="S4">
-        <v>0.1518734257088008</v>
-      </c>
-      <c r="T4">
-        <v>0.1518734257088008</v>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.3439376666666667</v>
+      </c>
+      <c r="H10">
+        <v>1.031813</v>
+      </c>
+      <c r="I10">
+        <v>0.09846422366881015</v>
+      </c>
+      <c r="J10">
+        <v>0.09846422366881016</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.192597333333334</v>
+      </c>
+      <c r="N10">
+        <v>9.577792000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.9379250156830187</v>
+      </c>
+      <c r="P10">
+        <v>0.9379250156830188</v>
+      </c>
+      <c r="Q10">
+        <v>1.098054477432889</v>
+      </c>
+      <c r="R10">
+        <v>9.882490296896002</v>
+      </c>
+      <c r="S10">
+        <v>0.09235205852878502</v>
+      </c>
+      <c r="T10">
+        <v>0.09235205852878504</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.3439376666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.031813</v>
+      </c>
+      <c r="I11">
+        <v>0.09846422366881015</v>
+      </c>
+      <c r="J11">
+        <v>0.09846422366881016</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.2112966666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.63389</v>
+      </c>
+      <c r="O11">
+        <v>0.06207498431698127</v>
+      </c>
+      <c r="P11">
+        <v>0.06207498431698127</v>
+      </c>
+      <c r="Q11">
+        <v>0.07267288250777779</v>
+      </c>
+      <c r="R11">
+        <v>0.65405594257</v>
+      </c>
+      <c r="S11">
+        <v>0.006112165140025126</v>
+      </c>
+      <c r="T11">
+        <v>0.006112165140025127</v>
       </c>
     </row>
   </sheetData>
